--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -549,10 +549,10 @@
         <v>0.007475</v>
       </c>
       <c r="I2">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J2">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N2">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O2">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P2">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q2">
-        <v>0.004274112808333333</v>
+        <v>0.004154689716666667</v>
       </c>
       <c r="R2">
-        <v>0.038467015275</v>
+        <v>0.03739220745</v>
       </c>
       <c r="S2">
-        <v>0.004884626001442315</v>
+        <v>0.05271697322098977</v>
       </c>
       <c r="T2">
-        <v>0.004884626001442314</v>
+        <v>0.05271697322098977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.007475</v>
       </c>
       <c r="I3">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J3">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q3">
         <v>0.002826750152777778</v>
@@ -641,10 +641,10 @@
         <v>0.025440751375</v>
       </c>
       <c r="S3">
-        <v>0.003230522430039363</v>
+        <v>0.03586735045667205</v>
       </c>
       <c r="T3">
-        <v>0.003230522430039363</v>
+        <v>0.03586735045667205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.007475</v>
       </c>
       <c r="I4">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J4">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N4">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O4">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P4">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q4">
-        <v>0.002119313661111111</v>
+        <v>0.0005120682305555555</v>
       </c>
       <c r="R4">
-        <v>0.01907382295</v>
+        <v>0.004608614075</v>
       </c>
       <c r="S4">
-        <v>0.002422035888732653</v>
+        <v>0.006497401500099226</v>
       </c>
       <c r="T4">
-        <v>0.002422035888732652</v>
+        <v>0.006497401500099228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.007475</v>
       </c>
       <c r="I5">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J5">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N5">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q5">
-        <v>0.008840276358333333</v>
+        <v>0.004140505488888889</v>
       </c>
       <c r="R5">
-        <v>0.07956248722499999</v>
+        <v>0.0372645494</v>
       </c>
       <c r="S5">
-        <v>0.01010301919866479</v>
+        <v>0.05253699598877386</v>
       </c>
       <c r="T5">
-        <v>0.01010301919866479</v>
+        <v>0.05253699598877386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.007475</v>
       </c>
       <c r="I6">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J6">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N6">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q6">
-        <v>0.0004273997361111111</v>
+        <v>0.0002937268027777778</v>
       </c>
       <c r="R6">
-        <v>0.003846597625</v>
+        <v>0.002643541225</v>
       </c>
       <c r="S6">
-        <v>0.0004884494063768053</v>
+        <v>0.003726966164093301</v>
       </c>
       <c r="T6">
-        <v>0.0004884494063768053</v>
+        <v>0.003726966164093301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.007475</v>
       </c>
       <c r="I7">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303319</v>
       </c>
       <c r="J7">
-        <v>0.02766080269984236</v>
+        <v>0.1635273785303318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N7">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O7">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P7">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q7">
-        <v>0.005715718052777777</v>
+        <v>0.0009600541166666667</v>
       </c>
       <c r="R7">
-        <v>0.051441462475</v>
+        <v>0.008640487049999999</v>
       </c>
       <c r="S7">
-        <v>0.006532149774586432</v>
+        <v>0.01218169119970366</v>
       </c>
       <c r="T7">
-        <v>0.006532149774586432</v>
+        <v>0.01218169119970366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H8">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I8">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J8">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N8">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O8">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P8">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q8">
-        <v>0.1502446426563333</v>
+        <v>0.02125200214133334</v>
       </c>
       <c r="R8">
-        <v>1.352201783907</v>
+        <v>0.191268019272</v>
       </c>
       <c r="S8">
-        <v>0.1717055494337106</v>
+        <v>0.2696570151274602</v>
       </c>
       <c r="T8">
-        <v>0.1717055494337106</v>
+        <v>0.2696570151274602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H9">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I9">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J9">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.403445</v>
       </c>
       <c r="O9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q9">
-        <v>0.09936660205944443</v>
+        <v>0.01445934700222223</v>
       </c>
       <c r="R9">
-        <v>0.8942994185349999</v>
+        <v>0.13013412302</v>
       </c>
       <c r="S9">
-        <v>0.1135601023791884</v>
+        <v>0.1834680952590385</v>
       </c>
       <c r="T9">
-        <v>0.1135601023791884</v>
+        <v>0.1834680952590385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H10">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I10">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J10">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N10">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O10">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P10">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q10">
-        <v>0.07449862415177777</v>
+        <v>0.002619323192444445</v>
       </c>
       <c r="R10">
-        <v>0.6704876173659999</v>
+        <v>0.023573908732</v>
       </c>
       <c r="S10">
-        <v>0.08513998879345257</v>
+        <v>0.03323540384719652</v>
       </c>
       <c r="T10">
-        <v>0.08513998879345255</v>
+        <v>0.03323540384719653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H11">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I11">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J11">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N11">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q11">
-        <v>0.3107555233103333</v>
+        <v>0.02117944720711111</v>
       </c>
       <c r="R11">
-        <v>2.796799709793</v>
+        <v>0.190615024864</v>
       </c>
       <c r="S11">
-        <v>0.3551437637055194</v>
+        <v>0.268736398478496</v>
       </c>
       <c r="T11">
-        <v>0.3551437637055194</v>
+        <v>0.268736398478496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H12">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I12">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J12">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N12">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q12">
-        <v>0.01502405844277778</v>
+        <v>0.001502466626222223</v>
       </c>
       <c r="R12">
-        <v>0.135216525985</v>
+        <v>0.013522199636</v>
       </c>
       <c r="S12">
-        <v>0.0171700911528814</v>
+        <v>0.01906411749167512</v>
       </c>
       <c r="T12">
-        <v>0.0171700911528814</v>
+        <v>0.01906411749167512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08758766666666666</v>
+        <v>0.01274533333333334</v>
       </c>
       <c r="H13">
-        <v>0.262763</v>
+        <v>0.03823600000000001</v>
       </c>
       <c r="I13">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696682</v>
       </c>
       <c r="J13">
-        <v>0.9723391973001576</v>
+        <v>0.8364726214696681</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N13">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O13">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P13">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q13">
-        <v>0.2009202973514444</v>
+        <v>0.004910853405333334</v>
       </c>
       <c r="R13">
-        <v>1.808282676163</v>
+        <v>0.044197680648</v>
       </c>
       <c r="S13">
-        <v>0.2296197018354053</v>
+        <v>0.06231159126580191</v>
       </c>
       <c r="T13">
-        <v>0.2296197018354053</v>
+        <v>0.06231159126580193</v>
       </c>
     </row>
   </sheetData>
